--- a/natmiOut/OldD4/LR-pairs_lrc2p/Apln-Aplnr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Apln-Aplnr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Apln</t>
   </si>
   <si>
     <t>Aplnr</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.4451949350087</v>
+        <v>40.20257466666666</v>
       </c>
       <c r="H2">
-        <v>13.4451949350087</v>
+        <v>120.607724</v>
       </c>
       <c r="I2">
-        <v>0.5998038638470286</v>
+        <v>0.7995260903790052</v>
       </c>
       <c r="J2">
-        <v>0.5998038638470286</v>
+        <v>0.8015583422966207</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>65.47736929745641</v>
+        <v>118.6693703333333</v>
       </c>
       <c r="N2">
-        <v>65.47736929745641</v>
+        <v>356.008111</v>
       </c>
       <c r="O2">
-        <v>0.9852890235744418</v>
+        <v>0.9747208565055959</v>
       </c>
       <c r="P2">
-        <v>0.9852890235744418</v>
+        <v>0.9753795134398372</v>
       </c>
       <c r="Q2">
-        <v>880.355994035855</v>
+        <v>4770.814221472151</v>
       </c>
       <c r="R2">
-        <v>880.355994035855</v>
+        <v>42937.32799324936</v>
       </c>
       <c r="S2">
-        <v>0.5909801633460162</v>
+        <v>0.7793147556127945</v>
       </c>
       <c r="T2">
-        <v>0.5909801633460162</v>
+        <v>0.7818235859029203</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.4451949350087</v>
+        <v>40.20257466666666</v>
       </c>
       <c r="H3">
-        <v>13.4451949350087</v>
+        <v>120.607724</v>
       </c>
       <c r="I3">
-        <v>0.5998038638470286</v>
+        <v>0.7995260903790052</v>
       </c>
       <c r="J3">
-        <v>0.5998038638470286</v>
+        <v>0.8015583422966207</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.465890027069907</v>
+        <v>0.5672313333333333</v>
       </c>
       <c r="N3">
-        <v>0.465890027069907</v>
+        <v>1.701694</v>
       </c>
       <c r="O3">
-        <v>0.007010610456559853</v>
+        <v>0.004659097874290942</v>
       </c>
       <c r="P3">
-        <v>0.007010610456559853</v>
+        <v>0.004662246208608125</v>
       </c>
       <c r="Q3">
-        <v>6.26398223223138</v>
+        <v>22.80416003160622</v>
       </c>
       <c r="R3">
-        <v>6.26398223223138</v>
+        <v>205.237440284456</v>
       </c>
       <c r="S3">
-        <v>0.004204991239770981</v>
+        <v>0.003725070308124971</v>
       </c>
       <c r="T3">
-        <v>0.004204991239770981</v>
+        <v>0.003737062342350633</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.4451949350087</v>
+        <v>40.20257466666666</v>
       </c>
       <c r="H4">
-        <v>13.4451949350087</v>
+        <v>120.607724</v>
       </c>
       <c r="I4">
-        <v>0.5998038638470286</v>
+        <v>0.7995260903790052</v>
       </c>
       <c r="J4">
-        <v>0.5998038638470286</v>
+        <v>0.8015583422966207</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.265324080811295</v>
+        <v>1.982288</v>
       </c>
       <c r="N4">
-        <v>0.265324080811295</v>
+        <v>5.946864</v>
       </c>
       <c r="O4">
-        <v>0.003992538297098361</v>
+        <v>0.01628202333739046</v>
       </c>
       <c r="P4">
-        <v>0.003992538297098361</v>
+        <v>0.01629302573618297</v>
       </c>
       <c r="Q4">
-        <v>3.567333987459862</v>
+        <v>79.69308133083732</v>
       </c>
       <c r="R4">
-        <v>3.567333987459862</v>
+        <v>717.2377319775359</v>
       </c>
       <c r="S4">
-        <v>0.002394739897156833</v>
+        <v>0.01301790246240352</v>
       </c>
       <c r="T4">
-        <v>0.002394739897156833</v>
+        <v>0.013059810700091</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.4451949350087</v>
+        <v>40.20257466666666</v>
       </c>
       <c r="H5">
-        <v>13.4451949350087</v>
+        <v>120.607724</v>
       </c>
       <c r="I5">
-        <v>0.5998038638470286</v>
+        <v>0.7995260903790052</v>
       </c>
       <c r="J5">
-        <v>0.5998038638470286</v>
+        <v>0.8015583422966207</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.246403639902092</v>
+        <v>0.2815003333333333</v>
       </c>
       <c r="N5">
-        <v>0.246403639902092</v>
+        <v>0.8445009999999999</v>
       </c>
       <c r="O5">
-        <v>0.003707827671899943</v>
+        <v>0.00231217411234721</v>
       </c>
       <c r="P5">
-        <v>0.003707827671899943</v>
+        <v>0.002313736538658402</v>
       </c>
       <c r="Q5">
-        <v>3.312944971179315</v>
+        <v>11.31703816952489</v>
       </c>
       <c r="R5">
-        <v>3.312944971179315</v>
+        <v>101.853343525724</v>
       </c>
       <c r="S5">
-        <v>0.002223969364084518</v>
+        <v>0.001848643528320512</v>
       </c>
       <c r="T5">
-        <v>0.002223969364084518</v>
+        <v>0.001854594824438149</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.970790932060851</v>
+        <v>40.20257466666666</v>
       </c>
       <c r="H6">
-        <v>8.970790932060851</v>
+        <v>120.607724</v>
       </c>
       <c r="I6">
-        <v>0.4001961361529715</v>
+        <v>0.7995260903790052</v>
       </c>
       <c r="J6">
-        <v>0.4001961361529715</v>
+        <v>0.8015583422966207</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>65.47736929745641</v>
+        <v>0.246641</v>
       </c>
       <c r="N6">
-        <v>65.47736929745641</v>
+        <v>0.493282</v>
       </c>
       <c r="O6">
-        <v>0.9852890235744418</v>
+        <v>0.002025848170375506</v>
       </c>
       <c r="P6">
-        <v>0.9852890235744418</v>
+        <v>0.001351478076713342</v>
       </c>
       <c r="Q6">
-        <v>587.3837907488215</v>
+        <v>9.915603218361332</v>
       </c>
       <c r="R6">
-        <v>587.3837907488215</v>
+        <v>59.49361931016799</v>
       </c>
       <c r="S6">
-        <v>0.3943088602284257</v>
+        <v>0.001619718467361789</v>
       </c>
       <c r="T6">
-        <v>0.3943088602284257</v>
+        <v>0.001083288526820571</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.970790932060851</v>
+        <v>9.697971666666668</v>
       </c>
       <c r="H7">
-        <v>8.970790932060851</v>
+        <v>29.093915</v>
       </c>
       <c r="I7">
-        <v>0.4001961361529715</v>
+        <v>0.1928677811196329</v>
       </c>
       <c r="J7">
-        <v>0.4001961361529715</v>
+        <v>0.1933580164262016</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.465890027069907</v>
+        <v>118.6693703333333</v>
       </c>
       <c r="N7">
-        <v>0.465890027069907</v>
+        <v>356.008111</v>
       </c>
       <c r="O7">
-        <v>0.007010610456559853</v>
+        <v>0.9747208565055959</v>
       </c>
       <c r="P7">
-        <v>0.007010610456559853</v>
+        <v>0.9753795134398372</v>
       </c>
       <c r="Q7">
-        <v>4.179402030176306</v>
+        <v>1150.852191193841</v>
       </c>
       <c r="R7">
-        <v>4.179402030176306</v>
+        <v>10357.66972074456</v>
       </c>
       <c r="S7">
-        <v>0.002805619216788873</v>
+        <v>0.1879922488052624</v>
       </c>
       <c r="T7">
-        <v>0.002805619216788873</v>
+        <v>0.1885974479814806</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.970790932060851</v>
+        <v>9.697971666666668</v>
       </c>
       <c r="H8">
-        <v>8.970790932060851</v>
+        <v>29.093915</v>
       </c>
       <c r="I8">
-        <v>0.4001961361529715</v>
+        <v>0.1928677811196329</v>
       </c>
       <c r="J8">
-        <v>0.4001961361529715</v>
+        <v>0.1933580164262016</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.265324080811295</v>
+        <v>0.5672313333333333</v>
       </c>
       <c r="N8">
-        <v>0.265324080811295</v>
+        <v>1.701694</v>
       </c>
       <c r="O8">
-        <v>0.003992538297098361</v>
+        <v>0.004659097874290942</v>
       </c>
       <c r="P8">
-        <v>0.003992538297098361</v>
+        <v>0.004662246208608125</v>
       </c>
       <c r="Q8">
-        <v>2.380166858199345</v>
+        <v>5.500993399112223</v>
       </c>
       <c r="R8">
-        <v>2.380166858199345</v>
+        <v>49.50894059201001</v>
       </c>
       <c r="S8">
-        <v>0.001597798399941529</v>
+        <v>0.0008985898690336924</v>
       </c>
       <c r="T8">
-        <v>0.001597798399941529</v>
+        <v>0.0009014826789870461</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,495 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.970790932060851</v>
+        <v>9.697971666666668</v>
       </c>
       <c r="H9">
-        <v>8.970790932060851</v>
+        <v>29.093915</v>
       </c>
       <c r="I9">
-        <v>0.4001961361529715</v>
+        <v>0.1928677811196329</v>
       </c>
       <c r="J9">
-        <v>0.4001961361529715</v>
+        <v>0.1933580164262016</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.246403639902092</v>
+        <v>1.982288</v>
       </c>
       <c r="N9">
-        <v>0.246403639902092</v>
+        <v>5.946864</v>
       </c>
       <c r="O9">
-        <v>0.003707827671899943</v>
+        <v>0.01628202333739046</v>
       </c>
       <c r="P9">
-        <v>0.003707827671899943</v>
+        <v>0.01629302573618297</v>
       </c>
       <c r="Q9">
-        <v>2.210435538460474</v>
+        <v>19.22417285917333</v>
       </c>
       <c r="R9">
-        <v>2.210435538460474</v>
+        <v>173.01755573256</v>
       </c>
       <c r="S9">
-        <v>0.001483858307815425</v>
+        <v>0.003140277713220579</v>
       </c>
       <c r="T9">
-        <v>0.001483858307815425</v>
+        <v>0.003150387137929393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>9.697971666666668</v>
+      </c>
+      <c r="H10">
+        <v>29.093915</v>
+      </c>
+      <c r="I10">
+        <v>0.1928677811196329</v>
+      </c>
+      <c r="J10">
+        <v>0.1933580164262016</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.2815003333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.8445009999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.00231217411234721</v>
+      </c>
+      <c r="P10">
+        <v>0.002313736538658402</v>
+      </c>
+      <c r="Q10">
+        <v>2.729982256823889</v>
+      </c>
+      <c r="R10">
+        <v>24.569840311415</v>
+      </c>
+      <c r="S10">
+        <v>0.0004459438906106633</v>
+      </c>
+      <c r="T10">
+        <v>0.0004473795076478141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>9.697971666666668</v>
+      </c>
+      <c r="H11">
+        <v>29.093915</v>
+      </c>
+      <c r="I11">
+        <v>0.1928677811196329</v>
+      </c>
+      <c r="J11">
+        <v>0.1933580164262016</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.246641</v>
+      </c>
+      <c r="N11">
+        <v>0.493282</v>
+      </c>
+      <c r="O11">
+        <v>0.002025848170375506</v>
+      </c>
+      <c r="P11">
+        <v>0.001351478076713342</v>
+      </c>
+      <c r="Q11">
+        <v>2.391917429838334</v>
+      </c>
+      <c r="R11">
+        <v>14.35150457903</v>
+      </c>
+      <c r="S11">
+        <v>0.0003907208415055919</v>
+      </c>
+      <c r="T11">
+        <v>0.0002613191201567897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.382459</v>
+      </c>
+      <c r="H12">
+        <v>0.764918</v>
+      </c>
+      <c r="I12">
+        <v>0.007606128501361918</v>
+      </c>
+      <c r="J12">
+        <v>0.005083641277177625</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>118.6693703333333</v>
+      </c>
+      <c r="N12">
+        <v>356.008111</v>
+      </c>
+      <c r="O12">
+        <v>0.9747208565055959</v>
+      </c>
+      <c r="P12">
+        <v>0.9753795134398372</v>
+      </c>
+      <c r="Q12">
+        <v>45.38616870831633</v>
+      </c>
+      <c r="R12">
+        <v>272.317012249898</v>
+      </c>
+      <c r="S12">
+        <v>0.007413852087539113</v>
+      </c>
+      <c r="T12">
+        <v>0.004958479555436185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.382459</v>
+      </c>
+      <c r="H13">
+        <v>0.764918</v>
+      </c>
+      <c r="I13">
+        <v>0.007606128501361918</v>
+      </c>
+      <c r="J13">
+        <v>0.005083641277177625</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5672313333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.701694</v>
+      </c>
+      <c r="O13">
+        <v>0.004659097874290942</v>
+      </c>
+      <c r="P13">
+        <v>0.004662246208608125</v>
+      </c>
+      <c r="Q13">
+        <v>0.2169427285153333</v>
+      </c>
+      <c r="R13">
+        <v>1.301656371092</v>
+      </c>
+      <c r="S13">
+        <v>3.543769713227906E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.370118727044515E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.382459</v>
+      </c>
+      <c r="H14">
+        <v>0.764918</v>
+      </c>
+      <c r="I14">
+        <v>0.007606128501361918</v>
+      </c>
+      <c r="J14">
+        <v>0.005083641277177625</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.982288</v>
+      </c>
+      <c r="N14">
+        <v>5.946864</v>
+      </c>
+      <c r="O14">
+        <v>0.01628202333739046</v>
+      </c>
+      <c r="P14">
+        <v>0.01629302573618297</v>
+      </c>
+      <c r="Q14">
+        <v>0.7581438861919999</v>
+      </c>
+      <c r="R14">
+        <v>4.548863317152</v>
+      </c>
+      <c r="S14">
+        <v>0.0001238431617663655</v>
+      </c>
+      <c r="T14">
+        <v>8.282789816257712E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.382459</v>
+      </c>
+      <c r="H15">
+        <v>0.764918</v>
+      </c>
+      <c r="I15">
+        <v>0.007606128501361918</v>
+      </c>
+      <c r="J15">
+        <v>0.005083641277177625</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.2815003333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.8445009999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.00231217411234721</v>
+      </c>
+      <c r="P15">
+        <v>0.002313736538658402</v>
+      </c>
+      <c r="Q15">
+        <v>0.1076623359863333</v>
+      </c>
+      <c r="R15">
+        <v>0.645974015918</v>
+      </c>
+      <c r="S15">
+        <v>1.758669341603531E-05</v>
+      </c>
+      <c r="T15">
+        <v>1.176220657243793E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.382459</v>
+      </c>
+      <c r="H16">
+        <v>0.764918</v>
+      </c>
+      <c r="I16">
+        <v>0.007606128501361918</v>
+      </c>
+      <c r="J16">
+        <v>0.005083641277177625</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.246641</v>
+      </c>
+      <c r="N16">
+        <v>0.493282</v>
+      </c>
+      <c r="O16">
+        <v>0.002025848170375506</v>
+      </c>
+      <c r="P16">
+        <v>0.001351478076713342</v>
+      </c>
+      <c r="Q16">
+        <v>0.094330070219</v>
+      </c>
+      <c r="R16">
+        <v>0.377320280876</v>
+      </c>
+      <c r="S16">
+        <v>1.540886150812503E-05</v>
+      </c>
+      <c r="T16">
+        <v>6.870429735980572E-06</v>
       </c>
     </row>
   </sheetData>
